--- a/lab1/Тесты 1 лаба.xlsx
+++ b/lab1/Тесты 1 лаба.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="106">
   <si>
     <t>Тесты</t>
   </si>
@@ -292,6 +292,51 @@
   </si>
   <si>
     <t>False</t>
+  </si>
+  <si>
+    <t>m = 9…9 15 раз</t>
+  </si>
+  <si>
+    <t>n = -9…9 15 раз</t>
+  </si>
+  <si>
+    <t>m = asdasdasd</t>
+  </si>
+  <si>
+    <t>n = -123-1-,.</t>
+  </si>
+  <si>
+    <t>m = 15</t>
+  </si>
+  <si>
+    <t>n = -8</t>
+  </si>
+  <si>
+    <t>x = 15</t>
+  </si>
+  <si>
+    <t>x = asdasdasd</t>
+  </si>
+  <si>
+    <t>x = 0.5</t>
+  </si>
+  <si>
+    <t>x = -0,3</t>
+  </si>
+  <si>
+    <t>x = asdasddgdfg</t>
+  </si>
+  <si>
+    <t>y = llasdl</t>
+  </si>
+  <si>
+    <t>x = 054,85,</t>
+  </si>
+  <si>
+    <t>y = 3</t>
+  </si>
+  <si>
+    <t>x = -0,5</t>
   </si>
 </sst>
 </file>
@@ -339,7 +384,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -348,11 +393,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -361,7 +406,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -369,17 +414,17 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -389,7 +434,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -397,12 +442,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -411,7 +456,55 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -421,21 +514,31 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
         <color indexed="64"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -448,37 +551,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -490,9 +572,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -774,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR38"/>
+  <dimension ref="A1:AR56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL37" sqref="AL37"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -799,31 +907,31 @@
     <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -831,1248 +939,1610 @@
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="C3" s="5">
+      <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="2">
         <v>15</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="2">
         <v>15</v>
       </c>
-      <c r="G3" s="6" t="str">
+      <c r="G3" s="2" t="str">
         <f xml:space="preserve"> IF(E3=F3, "+", "-")</f>
         <v>+</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Y3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="Z3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AA3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AB3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AC3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AD3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AE3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AF3" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AG3" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AH3" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AI3" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AJ3" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AK3" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AL3" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AM3" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AN3" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AO3" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AP3" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AQ3" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AR3" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="C4" s="5">
+      <c r="C4" s="9">
         <f>C3+1</f>
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="6" t="str">
+      <c r="G4" s="2" t="str">
         <f t="shared" ref="G4:G11" si="0" xml:space="preserve"> IF(E4=F4, "+", "-")</f>
         <v>+</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="M4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="6"/>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="6"/>
-      <c r="AO4" s="6"/>
-      <c r="AP4" s="6"/>
-      <c r="AQ4" s="6"/>
-      <c r="AR4" s="7"/>
+      <c r="M4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="10"/>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="C5" s="5">
+      <c r="C5" s="9">
         <f t="shared" ref="C5:C14" si="1">C4+1</f>
         <v>3</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="6" t="str">
+      <c r="G5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="6">
+      <c r="L5" s="24"/>
+      <c r="M5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="2">
         <v>1</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="6"/>
-      <c r="AK5" s="6"/>
-      <c r="AL5" s="6"/>
-      <c r="AM5" s="6"/>
-      <c r="AN5" s="6"/>
-      <c r="AO5" s="6"/>
-      <c r="AP5" s="6"/>
-      <c r="AQ5" s="6"/>
-      <c r="AR5" s="7"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="10"/>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="C6" s="5">
+      <c r="C6" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="6" t="str">
+      <c r="G6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="6" t="s">
+      <c r="L6" s="24"/>
+      <c r="M6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="V6" s="6"/>
-      <c r="W6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="6"/>
-      <c r="AK6" s="6"/>
-      <c r="AL6" s="6"/>
-      <c r="AM6" s="6"/>
-      <c r="AN6" s="6"/>
-      <c r="AO6" s="6"/>
-      <c r="AP6" s="6"/>
-      <c r="AQ6" s="6"/>
-      <c r="AR6" s="7"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V6" s="2"/>
+      <c r="W6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="10"/>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="C7" s="5">
+      <c r="C7" s="9">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="6" t="str">
+      <c r="G7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="M7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="6">
+      <c r="M7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="2">
         <v>1</v>
       </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="7"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="10"/>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="C8" s="5">
+      <c r="C8" s="9">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="6" t="str">
+      <c r="G8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="6" t="s">
+      <c r="L8" s="24"/>
+      <c r="M8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="7"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="10"/>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="C9" s="5">
+      <c r="C9" s="9">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="6" t="str">
+      <c r="G9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="M9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="6">
+      <c r="M9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="2">
         <v>1</v>
       </c>
-      <c r="O9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="6"/>
-      <c r="AH9" s="6"/>
-      <c r="AI9" s="6"/>
-      <c r="AJ9" s="6"/>
-      <c r="AK9" s="6"/>
-      <c r="AL9" s="6"/>
-      <c r="AM9" s="6"/>
-      <c r="AN9" s="6"/>
-      <c r="AO9" s="6"/>
-      <c r="AP9" s="6"/>
-      <c r="AQ9" s="6"/>
-      <c r="AR9" s="7"/>
+      <c r="O9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="10"/>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="C10" s="5">
+      <c r="C10" s="9">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="2">
         <v>0.400631592701372</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="2">
         <v>0.400631592701372</v>
       </c>
-      <c r="G10" s="6" t="str">
+      <c r="G10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="21"/>
-      <c r="M10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="6" t="s">
+      <c r="L10" s="25"/>
+      <c r="M10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG10" s="6"/>
-      <c r="AH10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ10" s="6"/>
-      <c r="AR10" s="7"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="10"/>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="C11" s="5">
+      <c r="C11" s="9">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="6" t="str">
+      <c r="G11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="M11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="6" t="s">
+      <c r="M11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
-      <c r="AH11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL11" s="6"/>
-      <c r="AM11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP11" s="6"/>
-      <c r="AQ11" s="6"/>
-      <c r="AR11" s="7"/>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="C12" s="5">
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="10"/>
+    </row>
+    <row r="12" spans="1:44" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="9">
         <f>C11+1</f>
         <v>10</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="2">
         <v>2</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="2">
         <v>2</v>
       </c>
-      <c r="G12" s="6" t="str">
+      <c r="G12" s="2" t="str">
         <f xml:space="preserve"> IF(E12=F12, "+", "-")</f>
         <v>+</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="13" t="s">
+      <c r="H12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM12" s="13"/>
-      <c r="AN12" s="13"/>
-      <c r="AO12" s="13"/>
-      <c r="AP12" s="13"/>
-      <c r="AQ12" s="13"/>
-      <c r="AR12" s="14"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="13"/>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="C13" s="5">
+      <c r="C13" s="9">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="2">
         <v>-4.5</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="2">
         <v>-4.5</v>
       </c>
-      <c r="G13" s="6" t="str">
+      <c r="G13" s="2" t="str">
         <f xml:space="preserve"> IF(E13=F13, "+", "-")</f>
         <v>+</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="C14" s="5">
+      <c r="C14" s="9">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="6" t="str">
+      <c r="E14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="2" t="str">
         <f xml:space="preserve"> IF(E14=F14, "+", "-")</f>
         <v>+</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="C15" s="5">
+      <c r="H14" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="11">
         <f>C14+1</f>
         <v>13</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="13" t="str">
+      <c r="E15" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="12" t="str">
         <f xml:space="preserve"> IF(E15=F15, "+", "-")</f>
         <v>+</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
+      <c r="H15" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="5">
+      <c r="C19" s="9">
         <v>14</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="2">
         <v>-2</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="2">
         <v>-2</v>
       </c>
-      <c r="G19" s="6" t="str">
-        <f xml:space="preserve"> IF(E19=F19, "+", "-")</f>
-        <v>+</v>
-      </c>
-      <c r="H19" s="7" t="s">
+      <c r="G19" s="2" t="str">
+        <f t="shared" ref="G19:G33" si="2" xml:space="preserve"> IF(E19=F19, "+", "-")</f>
+        <v>+</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="5">
+      <c r="C20" s="9">
         <f>C19+1</f>
         <v>15</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="6" t="str">
-        <f xml:space="preserve"> IF(E20=F20, "+", "-")</f>
-        <v>+</v>
-      </c>
-      <c r="H20" s="7" t="s">
+      <c r="G20" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="5">
-        <f t="shared" ref="C21:C33" si="2">C20+1</f>
+      <c r="C21" s="9">
+        <f t="shared" ref="C21:C33" si="3">C20+1</f>
         <v>16</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="6" t="str">
-        <f xml:space="preserve"> IF(E21=F21, "+", "-")</f>
-        <v>+</v>
-      </c>
-      <c r="H21" s="7" t="s">
+      <c r="E21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="5">
+      <c r="C22" s="9">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="2">
+        <v>91</v>
+      </c>
+      <c r="F22" s="2">
+        <v>91</v>
+      </c>
+      <c r="G22" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="6">
-        <v>91</v>
-      </c>
-      <c r="F22" s="6">
-        <v>91</v>
-      </c>
-      <c r="G22" s="6" t="str">
-        <f xml:space="preserve"> IF(E22=F22, "+", "-")</f>
-        <v>+</v>
-      </c>
-      <c r="H22" s="7" t="s">
+        <v>+</v>
+      </c>
+      <c r="H22" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="5">
+      <c r="C23" s="9">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="6" t="str">
-        <f xml:space="preserve"> IF(E23=F23, "+", "-")</f>
-        <v>+</v>
-      </c>
-      <c r="H23" s="7" t="s">
+        <v>+</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="5">
+      <c r="C24" s="9">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="6" t="str">
-        <f xml:space="preserve"> IF(E24=F24, "+", "-")</f>
-        <v>+</v>
-      </c>
-      <c r="H24" s="7" t="s">
+        <v>+</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="5">
+      <c r="C25" s="9">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="10" t="s">
+        <v>+</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="9">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="9">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="6" t="str">
-        <f xml:space="preserve"> IF(E25=F25, "+", "-")</f>
-        <v>+</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C26" s="5">
+      <c r="G27" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="10" t="s">
+        <v>+</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="9">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="9">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="6" t="str">
-        <f xml:space="preserve"> IF(E26=F26, "+", "-")</f>
-        <v>+</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="5">
+      <c r="G29" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="10" t="s">
+        <v>+</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="9">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="6" t="str">
-        <f xml:space="preserve"> IF(E27=F27, "+", "-")</f>
-        <v>+</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="5">
+      <c r="G30" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="10" t="s">
+        <v>+</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="9">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="6" t="str">
-        <f xml:space="preserve"> IF(E28=F28, "+", "-")</f>
-        <v>+</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="5">
+      <c r="G31" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="10" t="s">
+        <v>+</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="9">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="11">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F33" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="6" t="str">
-        <f xml:space="preserve"> IF(E29=F29, "+", "-")</f>
-        <v>+</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="5">
+      <c r="G33" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" s="6" t="str">
-        <f xml:space="preserve"> IF(E30=F30, "+", "-")</f>
-        <v>+</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="5">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" s="6" t="str">
-        <f xml:space="preserve"> IF(E31=F31, "+", "-")</f>
-        <v>+</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C32" s="5">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" s="6" t="str">
-        <f xml:space="preserve"> IF(E32=F32, "+", "-")</f>
-        <v>+</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="5">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" s="6" t="str">
-        <f xml:space="preserve"> IF(E33=F33, "+", "-")</f>
-        <v>+</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
+        <v>+</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="19" t="s">
+      <c r="H36" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C37" s="5">
-        <v>29</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="C37" s="9">
+        <v>29</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="2">
         <v>1</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="2">
         <v>1.1468801791191101</v>
       </c>
-      <c r="G37" s="6" t="str">
-        <f t="shared" ref="G37:G38" si="3" xml:space="preserve"> IF(E37=F37, "+", "-")</f>
+      <c r="G37" s="2" t="str">
+        <f t="shared" ref="G37:G38" si="4" xml:space="preserve"> IF(E37=F37, "+", "-")</f>
         <v>-</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C38" s="15">
+    <row r="38" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="11">
         <v>30</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="12">
         <v>1</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="21">
         <v>1</v>
       </c>
-      <c r="G38" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>+</v>
-      </c>
-      <c r="H38" s="14" t="s">
+      <c r="G38" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>+</v>
+      </c>
+      <c r="H38" s="13" t="s">
         <v>60</v>
       </c>
     </row>
+    <row r="40" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>4</v>
+      </c>
+      <c r="B41" s="17">
+        <v>1</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="18"/>
+      <c r="C42" s="9">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42" s="2" t="str">
+        <f xml:space="preserve"> IF(E42=F42, "+", "-")</f>
+        <v>+</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="18"/>
+      <c r="C43" s="9">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G43" s="2" t="str">
+        <f t="shared" ref="G43:G56" si="5" xml:space="preserve"> IF(E43=F43, "+", "-")</f>
+        <v>+</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="18"/>
+      <c r="C44" s="9">
+        <v>3</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G44" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="18"/>
+      <c r="C45" s="9">
+        <v>4</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G45" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="18"/>
+      <c r="C46" s="9">
+        <v>5</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="2">
+        <v>15</v>
+      </c>
+      <c r="F46" s="2">
+        <v>15</v>
+      </c>
+      <c r="G46" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="18"/>
+      <c r="C47" s="9">
+        <v>6</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" s="2">
+        <v>-8</v>
+      </c>
+      <c r="F47" s="2">
+        <v>-8</v>
+      </c>
+      <c r="G47" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="18"/>
+      <c r="C48" s="9">
+        <v>7</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G48" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="18"/>
+      <c r="C49" s="9">
+        <v>8</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G49" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="18"/>
+      <c r="C50" s="9">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G50" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="19"/>
+      <c r="C51" s="11">
+        <v>10</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="12">
+        <v>-0.3</v>
+      </c>
+      <c r="F51" s="12">
+        <v>-0.3</v>
+      </c>
+      <c r="G51" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="6">
+        <v>2</v>
+      </c>
+      <c r="C52" s="6">
+        <v>11</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G52" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G53" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9">
+        <v>13</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G54" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9">
+        <v>14</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" s="2">
+        <v>3</v>
+      </c>
+      <c r="F55" s="2">
+        <v>3</v>
+      </c>
+      <c r="G55" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="11"/>
+      <c r="C56" s="11">
+        <v>15</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="12">
+        <v>43535354.123000003</v>
+      </c>
+      <c r="F56" s="12">
+        <v>43535354.123000003</v>
+      </c>
+      <c r="G56" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="L4:L6"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="L9:L10"/>
+    <mergeCell ref="B41:B51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
